--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>432235.2854098626</v>
+        <v>429796.8123101158</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>20.47516904773098</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>196.3721373528949</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498695</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097352</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>25.1332792484278</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>83.25383314671824</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>338.5561977821773</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>61.67200173588867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>32.61342286579165</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>29.905505797791</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>211.7953803712232</v>
+        <v>156.8137971778786</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>192.1080157852438</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>50.56659657879626</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.88641949135589</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>126.4643665640119</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>216.5793400412173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>59.31005804030049</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>81.74333192602201</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>249.7682289193597</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>15.93450140722141</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>18.70843787977172</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>83.06560892428033</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>27.02919805176109</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4135,16 +4135,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,10 +4189,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
-        <v>126.6035148834796</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1569.10175931188</v>
+        <v>1186.474085326793</v>
       </c>
       <c r="C2" t="n">
-        <v>1569.10175931188</v>
+        <v>817.5115683863817</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.836060705129</v>
+        <v>459.2458697796312</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>73.45761718138692</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883007</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W2" t="n">
-        <v>2719.306689612893</v>
+        <v>2336.679015627807</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.840931351813</v>
+        <v>1963.213257366727</v>
       </c>
       <c r="Y2" t="n">
-        <v>1955.701599376001</v>
+        <v>1573.073925390915</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M3" t="n">
         <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125859</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619339</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.76045543161</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266133</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501179</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>361.3151575124869</v>
+        <v>189.2249443698257</v>
       </c>
       <c r="C4" t="n">
-        <v>361.3151575124869</v>
+        <v>189.2249443698257</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>189.2249443698257</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>189.2249443698257</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>189.2249443698257</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962299</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372935</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596509</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588489</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886967</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068866</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596454</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877123</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>410.0175235133559</v>
       </c>
       <c r="V4" t="n">
-        <v>666.202517612298</v>
+        <v>410.0175235133559</v>
       </c>
       <c r="W4" t="n">
-        <v>582.107736656017</v>
+        <v>410.0175235133559</v>
       </c>
       <c r="X4" t="n">
-        <v>582.107736656017</v>
+        <v>410.0175235133559</v>
       </c>
       <c r="Y4" t="n">
-        <v>361.3151575124869</v>
+        <v>189.2249443698257</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649823</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379709</v>
+        <v>2656.568750250375</v>
       </c>
       <c r="X5" t="n">
-        <v>2435.796531379709</v>
+        <v>2283.102991989295</v>
       </c>
       <c r="Y5" t="n">
-        <v>2373.501580131336</v>
+        <v>2283.102991989295</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>696.2582702654239</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C7" t="n">
-        <v>527.322087337517</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>527.322087337517</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450114</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450114</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="U7" t="n">
-        <v>696.2582702654239</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="V7" t="n">
-        <v>696.2582702654239</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="W7" t="n">
-        <v>696.2582702654239</v>
+        <v>541.6393785387529</v>
       </c>
       <c r="X7" t="n">
-        <v>696.2582702654239</v>
+        <v>541.6393785387529</v>
       </c>
       <c r="Y7" t="n">
-        <v>696.2582702654239</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1418.660964416653</v>
+        <v>1363.124011696103</v>
       </c>
       <c r="C8" t="n">
-        <v>1049.698447476242</v>
+        <v>994.1614947556916</v>
       </c>
       <c r="D8" t="n">
-        <v>691.4327488694912</v>
+        <v>635.8957961489411</v>
       </c>
       <c r="E8" t="n">
-        <v>691.4327488694912</v>
+        <v>635.8957961489411</v>
       </c>
       <c r="F8" t="n">
-        <v>280.4468440798836</v>
+        <v>224.9098913593336</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>2513.328941997117</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392465</v>
+        <v>2139.863183736037</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416653</v>
+        <v>1749.723851760225</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>216.6287558445192</v>
+        <v>460.171619808316</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>460.171619808316</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O10" t="n">
         <v>809.015235706886</v>
@@ -4990,22 +4990,22 @@
         <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>726.8385050250099</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>726.8385050250099</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>726.8385050250099</v>
+        <v>869.8096355365731</v>
       </c>
       <c r="W10" t="n">
-        <v>437.4213349880492</v>
+        <v>869.8096355365731</v>
       </c>
       <c r="X10" t="n">
-        <v>437.4213349880492</v>
+        <v>641.8200846385557</v>
       </c>
       <c r="Y10" t="n">
-        <v>216.6287558445192</v>
+        <v>641.8200846385557</v>
       </c>
     </row>
     <row r="11">
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2410.714175003133</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S13" t="n">
-        <v>2410.714175003133</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.112710026075</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578602</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5516,22 +5516,22 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>697.5276345711974</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711974</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2252.17559542457</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2032.574130447511</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1743.498903791709</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1488.814415585822</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1199.397245548862</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>971.4076946508441</v>
       </c>
       <c r="Y19" t="n">
-        <v>697.5276345711974</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5750,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,19 +5829,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>235.8125159357153</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y22" t="n">
-        <v>1016.58045691144</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6066,19 +6066,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6206,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6221,19 +6221,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6303,19 +6303,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D28" t="n">
-        <v>317.6151975578601</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1725.169940187922</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1470.485451982035</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1181.068281945074</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>953.0787310470569</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>732.2861519035267</v>
       </c>
     </row>
     <row r="29">
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908938</v>
@@ -6613,58 +6613,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6689,16 +6689,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6865,43 +6865,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="35">
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400699</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.917417812163</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.917417812163</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.917417812163</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7099,46 +7099,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797729</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138397</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703096</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7555,13 +7555,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.7309773356195</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1849.578742244367</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1560.161572207407</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1332.172021309389</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1111.379442165859</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>361.4552010245308</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>222.094945084364</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,16 +22598,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>220.5123309381876</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>152.8688313645181</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>30.48882721876579</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462248</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922704</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856724</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>54.5619194376327</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.00531331087754</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>80.9846548059234</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>136.8413214260728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>22.81817176293617</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>121.5862749664521</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>36.41624546988447</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>132.680971610991</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431595</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>62.35543909865092</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405078</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,16 +26023,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,10 +26077,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
-        <v>125.5341284403484</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>951767.6284220594</v>
+        <v>951767.6284220596</v>
       </c>
     </row>
     <row r="3">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354580.0968631197</v>
+        <v>354580.0968631199</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855343</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="D2" t="n">
         <v>389994.8406855346</v>
       </c>
       <c r="E2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.634852753</v>
       </c>
       <c r="F2" t="n">
         <v>383394.634852753</v>
@@ -26329,22 +26329,22 @@
         <v>383394.634852753</v>
       </c>
       <c r="H2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="I2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="J2" t="n">
         <v>383394.6348527531</v>
       </c>
-      <c r="I2" t="n">
-        <v>383394.6348527531</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>383394.634852753</v>
-      </c>
-      <c r="K2" t="n">
-        <v>383394.6348527528</v>
       </c>
       <c r="L2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="M2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.634852753</v>
       </c>
       <c r="N2" t="n">
         <v>383394.6348527528</v>
@@ -26353,7 +26353,7 @@
         <v>383394.634852753</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527528</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727594</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>51041.86039138734</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1133140.449817254</v>
+        <v>-1133326.843205794</v>
       </c>
       <c r="C6" t="n">
-        <v>188464.1560200886</v>
+        <v>188464.1560200891</v>
       </c>
       <c r="D6" t="n">
-        <v>188464.1560200887</v>
+        <v>188464.1560200888</v>
       </c>
       <c r="E6" t="n">
-        <v>-57967.05282037633</v>
+        <v>-58001.79074581196</v>
       </c>
       <c r="F6" t="n">
-        <v>267445.4089869785</v>
+        <v>267410.6710615428</v>
       </c>
       <c r="G6" t="n">
-        <v>267445.4089869785</v>
+        <v>267410.6710615428</v>
       </c>
       <c r="H6" t="n">
-        <v>267445.4089869786</v>
+        <v>267410.6710615427</v>
       </c>
       <c r="I6" t="n">
-        <v>267445.4089869785</v>
+        <v>267410.6710615428</v>
       </c>
       <c r="J6" t="n">
-        <v>49914.20658970099</v>
+        <v>49879.46866426533</v>
       </c>
       <c r="K6" t="n">
-        <v>267445.4089869783</v>
+        <v>267410.6710615428</v>
       </c>
       <c r="L6" t="n">
-        <v>267445.4089869786</v>
+        <v>267410.6710615428</v>
       </c>
       <c r="M6" t="n">
-        <v>182390.3810514668</v>
+        <v>182355.643126031</v>
       </c>
       <c r="N6" t="n">
-        <v>267445.4089869783</v>
+        <v>267410.6710615426</v>
       </c>
       <c r="O6" t="n">
-        <v>267445.4089869785</v>
+        <v>267410.6710615428</v>
       </c>
       <c r="P6" t="n">
-        <v>267445.4089869785</v>
+        <v>267410.6710615426</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593299</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483752</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>72.51281930295647</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>107.2399275319473</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-1.041764167267772e-12</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>140.8925290106004</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>203.2691651898728</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>44.17764388130331</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>324.5659369201649</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>253.5984153398212</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>188.6791475543038</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>199.1263452822303</v>
+        <v>254.1079284755748</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28026,10 +28026,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>27.4409334909254</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>201.5710467450317</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,46 +31197,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31601,7 +31601,7 @@
         <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.461131202643</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353158</v>
@@ -31622,7 +31622,7 @@
         <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905542</v>
@@ -31838,16 +31838,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31859,7 +31859,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034297</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966719</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286439</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840384</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230785</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567575</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106947</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014231</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597634</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609568</v>
@@ -35270,7 +35270,7 @@
         <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35507,7 +35507,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060445</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001044</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191299</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
         <v>426.2724270010451</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
